--- a/blog/D4DJ/データ/d4dj_music.xlsx
+++ b/blog/D4DJ/データ/d4dj_music.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hatakeyama/Desktop/kojinyou/D4DJ/データ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hatakeyama/Desktop/kojinyou/djangogirls/blog/D4DJ/データ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E658CC0D-4002-C946-8DF1-A41AD9CDF8FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C772D69-98C9-204D-B743-EF8E4D69FAAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="277">
   <si>
     <t>Dig Delight!</t>
   </si>
@@ -1030,6 +1030,26 @@
     <rPh sb="0" eb="3">
       <t xml:space="preserve">ボウケンオウ </t>
     </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>あすいろClearSky</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>[Re]termination</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>アンダーカバー</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>アンダーカバー（TeddyLoid Remix）</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>God knows…</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -1336,7 +1356,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:S248" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:S253" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:S183">
     <sortCondition ref="E1:E183"/>
   </sortState>
@@ -1662,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M248"/>
+  <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="E234" sqref="E234"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8957,7 +8977,7 @@
         <v>138</v>
       </c>
       <c r="E178" s="4">
-        <v>120</v>
+        <v>121.8</v>
       </c>
       <c r="F178" s="1">
         <v>3</v>
@@ -8998,7 +9018,7 @@
         <v>147</v>
       </c>
       <c r="E179" s="4">
-        <v>120</v>
+        <v>113.72</v>
       </c>
       <c r="F179" s="1">
         <v>2</v>
@@ -9039,7 +9059,7 @@
         <v>170</v>
       </c>
       <c r="E180" s="4">
-        <v>120</v>
+        <v>120.76</v>
       </c>
       <c r="F180" s="1">
         <v>5</v>
@@ -9080,7 +9100,7 @@
         <v>175</v>
       </c>
       <c r="E181" s="4">
-        <v>120</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="F181" s="1">
         <v>5</v>
@@ -9121,7 +9141,7 @@
         <v>178</v>
       </c>
       <c r="E182" s="4">
-        <v>120</v>
+        <v>111.27</v>
       </c>
       <c r="F182" s="1">
         <v>4</v>
@@ -10556,7 +10576,7 @@
         <v>120</v>
       </c>
       <c r="E217" s="4">
-        <v>120</v>
+        <v>126.67</v>
       </c>
       <c r="F217" s="1">
         <v>2</v>
@@ -11171,7 +11191,7 @@
         <v>138</v>
       </c>
       <c r="E232" s="4">
-        <v>120</v>
+        <v>120.87</v>
       </c>
       <c r="F232" s="1">
         <v>3</v>
@@ -11253,7 +11273,7 @@
         <v>180</v>
       </c>
       <c r="E234" s="4">
-        <v>120</v>
+        <v>130.11000000000001</v>
       </c>
       <c r="F234" s="1">
         <v>4</v>
@@ -11294,7 +11314,7 @@
         <v>128</v>
       </c>
       <c r="E235" s="4">
-        <v>120</v>
+        <v>118.32</v>
       </c>
       <c r="F235" s="1">
         <v>2</v>
@@ -11335,7 +11355,7 @@
         <v>145</v>
       </c>
       <c r="E236" s="4">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F236" s="1">
         <v>4</v>
@@ -11376,7 +11396,7 @@
         <v>110</v>
       </c>
       <c r="E237" s="4">
-        <v>120</v>
+        <v>126.4</v>
       </c>
       <c r="F237" s="1">
         <v>5</v>
@@ -11417,7 +11437,7 @@
         <v>188</v>
       </c>
       <c r="E238" s="4">
-        <v>120</v>
+        <v>140.46</v>
       </c>
       <c r="F238" s="1">
         <v>4</v>
@@ -11458,7 +11478,7 @@
         <v>157</v>
       </c>
       <c r="E239" s="4">
-        <v>120</v>
+        <v>150.54</v>
       </c>
       <c r="F239" s="1">
         <v>4</v>
@@ -11499,7 +11519,7 @@
         <v>148</v>
       </c>
       <c r="E240" s="4">
-        <v>120</v>
+        <v>122.74</v>
       </c>
       <c r="F240" s="1">
         <v>3</v>
@@ -11540,7 +11560,7 @@
         <v>210</v>
       </c>
       <c r="E241" s="4">
-        <v>120</v>
+        <v>136.1</v>
       </c>
       <c r="F241" s="1">
         <v>3</v>
@@ -11581,7 +11601,7 @@
         <v>174</v>
       </c>
       <c r="E242" s="4">
-        <v>120</v>
+        <v>138.91999999999999</v>
       </c>
       <c r="F242" s="1">
         <v>3</v>
@@ -11622,7 +11642,7 @@
         <v>168</v>
       </c>
       <c r="E243" s="4">
-        <v>120</v>
+        <v>137.87</v>
       </c>
       <c r="F243" s="1">
         <v>3</v>
@@ -11663,7 +11683,7 @@
         <v>185</v>
       </c>
       <c r="E244" s="4">
-        <v>120</v>
+        <v>132.72999999999999</v>
       </c>
       <c r="F244" s="1">
         <v>3</v>
@@ -11704,7 +11724,7 @@
         <v>188</v>
       </c>
       <c r="E245" s="4">
-        <v>120</v>
+        <v>131.5</v>
       </c>
       <c r="F245" s="1">
         <v>4</v>
@@ -11745,7 +11765,7 @@
         <v>150</v>
       </c>
       <c r="E246" s="4">
-        <v>120</v>
+        <v>116.27</v>
       </c>
       <c r="F246" s="1">
         <v>1</v>
@@ -11827,7 +11847,7 @@
         <v>180</v>
       </c>
       <c r="E248" s="4">
-        <v>120</v>
+        <v>133.24</v>
       </c>
       <c r="F248" s="1">
         <v>5</v>
@@ -11852,6 +11872,211 @@
       </c>
       <c r="M248">
         <v>861</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
+      <c r="A249">
+        <v>249</v>
+      </c>
+      <c r="B249" t="s">
+        <v>272</v>
+      </c>
+      <c r="C249" t="s">
+        <v>194</v>
+      </c>
+      <c r="D249">
+        <v>182</v>
+      </c>
+      <c r="E249" s="4">
+        <v>111.62</v>
+      </c>
+      <c r="F249" s="1">
+        <v>2</v>
+      </c>
+      <c r="G249" s="1">
+        <v>7</v>
+      </c>
+      <c r="H249" s="2">
+        <v>10</v>
+      </c>
+      <c r="I249">
+        <v>12.5</v>
+      </c>
+      <c r="J249">
+        <v>218</v>
+      </c>
+      <c r="K249">
+        <v>333</v>
+      </c>
+      <c r="L249">
+        <v>497</v>
+      </c>
+      <c r="M249">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13">
+      <c r="A250">
+        <v>250</v>
+      </c>
+      <c r="B250" t="s">
+        <v>273</v>
+      </c>
+      <c r="C250" t="s">
+        <v>223</v>
+      </c>
+      <c r="D250">
+        <v>195</v>
+      </c>
+      <c r="E250" s="4">
+        <v>139.15</v>
+      </c>
+      <c r="F250" s="1">
+        <v>4</v>
+      </c>
+      <c r="G250" s="1">
+        <v>8</v>
+      </c>
+      <c r="H250" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="I250">
+        <v>14</v>
+      </c>
+      <c r="J250">
+        <v>264</v>
+      </c>
+      <c r="K250">
+        <v>381</v>
+      </c>
+      <c r="L250">
+        <v>550</v>
+      </c>
+      <c r="M250">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13">
+      <c r="A251">
+        <v>251</v>
+      </c>
+      <c r="B251" t="s">
+        <v>274</v>
+      </c>
+      <c r="C251" t="s">
+        <v>194</v>
+      </c>
+      <c r="D251">
+        <v>185</v>
+      </c>
+      <c r="E251" s="4">
+        <v>134.24</v>
+      </c>
+      <c r="F251" s="1">
+        <v>3</v>
+      </c>
+      <c r="G251" s="1">
+        <v>7</v>
+      </c>
+      <c r="H251" s="2">
+        <v>11</v>
+      </c>
+      <c r="I251">
+        <v>13.5</v>
+      </c>
+      <c r="J251">
+        <v>233</v>
+      </c>
+      <c r="K251">
+        <v>297</v>
+      </c>
+      <c r="L251">
+        <v>565</v>
+      </c>
+      <c r="M251">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13">
+      <c r="A252">
+        <v>252</v>
+      </c>
+      <c r="B252" t="s">
+        <v>275</v>
+      </c>
+      <c r="C252" t="s">
+        <v>192</v>
+      </c>
+      <c r="D252">
+        <v>185</v>
+      </c>
+      <c r="E252" s="4">
+        <v>125.14</v>
+      </c>
+      <c r="F252" s="1">
+        <v>3</v>
+      </c>
+      <c r="G252" s="1">
+        <v>9</v>
+      </c>
+      <c r="H252" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="I252">
+        <v>13</v>
+      </c>
+      <c r="J252">
+        <v>266</v>
+      </c>
+      <c r="K252">
+        <v>375</v>
+      </c>
+      <c r="L252">
+        <v>576</v>
+      </c>
+      <c r="M252">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13">
+      <c r="A253">
+        <v>253</v>
+      </c>
+      <c r="B253" t="s">
+        <v>276</v>
+      </c>
+      <c r="C253" t="s">
+        <v>253</v>
+      </c>
+      <c r="D253">
+        <v>150</v>
+      </c>
+      <c r="E253" s="4">
+        <v>124.16</v>
+      </c>
+      <c r="F253" s="1">
+        <v>2</v>
+      </c>
+      <c r="G253" s="1">
+        <v>7</v>
+      </c>
+      <c r="H253" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="I253">
+        <v>13</v>
+      </c>
+      <c r="J253">
+        <v>230</v>
+      </c>
+      <c r="K253">
+        <v>363</v>
+      </c>
+      <c r="L253">
+        <v>514</v>
+      </c>
+      <c r="M253">
+        <v>917</v>
       </c>
     </row>
   </sheetData>

--- a/blog/D4DJ/データ/d4dj_music.xlsx
+++ b/blog/D4DJ/データ/d4dj_music.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hatakeyama/Desktop/kojinyou/djangogirls/blog/D4DJ/データ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C772D69-98C9-204D-B743-EF8E4D69FAAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFBC9CCF-5903-B14A-88AF-B6375FDFD73A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="279">
   <si>
     <t>Dig Delight!</t>
   </si>
@@ -1050,6 +1050,20 @@
   </si>
   <si>
     <t>God knows…</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>大切フォトグラフ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイセツ </t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>原曲</t>
+    <rPh sb="0" eb="2">
+      <t>ゲ</t>
+    </rPh>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -1356,7 +1370,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:S253" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:S254" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:S183">
     <sortCondition ref="E1:E183"/>
   </sortState>
@@ -1682,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="K255" sqref="K255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12079,6 +12093,47 @@
         <v>917</v>
       </c>
     </row>
+    <row r="254" spans="1:13">
+      <c r="A254">
+        <v>254</v>
+      </c>
+      <c r="B254" t="s">
+        <v>277</v>
+      </c>
+      <c r="C254" t="s">
+        <v>278</v>
+      </c>
+      <c r="D254">
+        <v>92</v>
+      </c>
+      <c r="E254" s="4">
+        <v>137.62</v>
+      </c>
+      <c r="F254" s="1">
+        <v>1</v>
+      </c>
+      <c r="G254" s="1">
+        <v>4</v>
+      </c>
+      <c r="H254" s="2">
+        <v>7</v>
+      </c>
+      <c r="I254">
+        <v>10.5</v>
+      </c>
+      <c r="J254">
+        <v>93</v>
+      </c>
+      <c r="K254">
+        <v>171</v>
+      </c>
+      <c r="L254">
+        <v>340</v>
+      </c>
+      <c r="M254">
+        <v>445</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="14"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>

--- a/blog/D4DJ/データ/d4dj_music.xlsx
+++ b/blog/D4DJ/データ/d4dj_music.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hatakeyama/Desktop/kojinyou/djangogirls/blog/D4DJ/データ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFBC9CCF-5903-B14A-88AF-B6375FDFD73A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6EF8B3A2-0D2A-7D43-BA27-2A1B020F23B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="600" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d4dj_music" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="285">
   <si>
     <t>Dig Delight!</t>
   </si>
@@ -1064,6 +1064,45 @@
     <rPh sb="0" eb="2">
       <t>ゲ</t>
     </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ゴジラのテーマ-シンギュラポイント-</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ひらけ！GO MY WAY★</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>弱肉共食</t>
+    <rPh sb="0" eb="2">
+      <t>ジャクニク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">トモ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">クイ </t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>汚れっちまった悲しみの色（t+pazolite Remix）</t>
+    <rPh sb="4" eb="5">
+      <t>マッタ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>六兆年と一夜物語</t>
+    <rPh sb="0" eb="3">
+      <t>ロクチョウネン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Realize</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -1370,7 +1409,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:S254" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:S260" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:S183">
     <sortCondition ref="E1:E183"/>
   </sortState>
@@ -1696,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="K255" sqref="K255"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12134,6 +12173,249 @@
         <v>445</v>
       </c>
     </row>
+    <row r="255" spans="1:13">
+      <c r="A255">
+        <v>255</v>
+      </c>
+      <c r="B255" t="s">
+        <v>279</v>
+      </c>
+      <c r="C255" t="s">
+        <v>253</v>
+      </c>
+      <c r="D255">
+        <v>118</v>
+      </c>
+      <c r="E255" s="4">
+        <v>129.72999999999999</v>
+      </c>
+      <c r="F255" s="1">
+        <v>2</v>
+      </c>
+      <c r="G255" s="1">
+        <v>5</v>
+      </c>
+      <c r="H255" s="2">
+        <v>9</v>
+      </c>
+      <c r="I255">
+        <v>11</v>
+      </c>
+      <c r="J255">
+        <v>169</v>
+      </c>
+      <c r="K255">
+        <v>286</v>
+      </c>
+      <c r="L255">
+        <v>501</v>
+      </c>
+      <c r="M255">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13">
+      <c r="A256">
+        <v>256</v>
+      </c>
+      <c r="B256" t="s">
+        <v>280</v>
+      </c>
+      <c r="C256" t="s">
+        <v>202</v>
+      </c>
+      <c r="D256">
+        <v>180</v>
+      </c>
+      <c r="F256" s="1">
+        <v>3</v>
+      </c>
+      <c r="G256" s="1">
+        <v>7</v>
+      </c>
+      <c r="H256" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="I256">
+        <v>13</v>
+      </c>
+      <c r="J256">
+        <v>209</v>
+      </c>
+      <c r="K256">
+        <v>321</v>
+      </c>
+      <c r="L256">
+        <v>525</v>
+      </c>
+      <c r="M256">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13">
+      <c r="A257">
+        <v>257</v>
+      </c>
+      <c r="B257" t="s">
+        <v>281</v>
+      </c>
+      <c r="C257" t="s">
+        <v>258</v>
+      </c>
+      <c r="D257">
+        <v>165</v>
+      </c>
+      <c r="E257" s="4">
+        <v>126.46</v>
+      </c>
+      <c r="F257" s="1">
+        <v>4</v>
+      </c>
+      <c r="G257" s="1">
+        <v>7</v>
+      </c>
+      <c r="H257" s="2">
+        <v>11</v>
+      </c>
+      <c r="I257">
+        <v>13.5</v>
+      </c>
+      <c r="J257">
+        <v>219</v>
+      </c>
+      <c r="K257">
+        <v>294</v>
+      </c>
+      <c r="L257">
+        <v>533</v>
+      </c>
+      <c r="M257">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13">
+      <c r="A258">
+        <v>258</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C258" t="s">
+        <v>192</v>
+      </c>
+      <c r="D258">
+        <v>180</v>
+      </c>
+      <c r="E258" s="4">
+        <v>123.34</v>
+      </c>
+      <c r="F258" s="1">
+        <v>4</v>
+      </c>
+      <c r="G258" s="1">
+        <v>7</v>
+      </c>
+      <c r="H258" s="2">
+        <v>11</v>
+      </c>
+      <c r="I258">
+        <v>14</v>
+      </c>
+      <c r="J258">
+        <v>227</v>
+      </c>
+      <c r="K258">
+        <v>315</v>
+      </c>
+      <c r="L258">
+        <v>512</v>
+      </c>
+      <c r="M258">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13">
+      <c r="A259">
+        <v>259</v>
+      </c>
+      <c r="B259" t="s">
+        <v>283</v>
+      </c>
+      <c r="C259" t="s">
+        <v>258</v>
+      </c>
+      <c r="D259">
+        <v>186</v>
+      </c>
+      <c r="E259" s="4">
+        <v>126.97</v>
+      </c>
+      <c r="F259" s="1">
+        <v>5</v>
+      </c>
+      <c r="G259" s="1">
+        <v>9</v>
+      </c>
+      <c r="H259" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="I259">
+        <v>14.5</v>
+      </c>
+      <c r="J259">
+        <v>298</v>
+      </c>
+      <c r="K259">
+        <v>489</v>
+      </c>
+      <c r="L259">
+        <v>688</v>
+      </c>
+      <c r="M259">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13">
+      <c r="A260">
+        <v>260</v>
+      </c>
+      <c r="B260" t="s">
+        <v>284</v>
+      </c>
+      <c r="C260" t="s">
+        <v>206</v>
+      </c>
+      <c r="D260">
+        <v>135</v>
+      </c>
+      <c r="E260" s="4">
+        <v>123.09</v>
+      </c>
+      <c r="F260" s="1">
+        <v>3</v>
+      </c>
+      <c r="G260" s="1">
+        <v>7</v>
+      </c>
+      <c r="H260" s="2">
+        <v>10</v>
+      </c>
+      <c r="I260">
+        <v>12.5</v>
+      </c>
+      <c r="J260">
+        <v>178</v>
+      </c>
+      <c r="K260">
+        <v>281</v>
+      </c>
+      <c r="L260">
+        <v>440</v>
+      </c>
+      <c r="M260">
+        <v>666</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="14"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>

--- a/blog/D4DJ/データ/d4dj_music.xlsx
+++ b/blog/D4DJ/データ/d4dj_music.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hatakeyama/Desktop/kojinyou/djangogirls/blog/D4DJ/データ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6EF8B3A2-0D2A-7D43-BA27-2A1B020F23B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9158D68-0C34-6644-A7B7-2FFA42A10243}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="600" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="286">
   <si>
     <t>Dig Delight!</t>
   </si>
@@ -1103,6 +1103,10 @@
   </si>
   <si>
     <t>Realize</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>アンビリカル</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -1409,7 +1413,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:S260" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:S261" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:S183">
     <sortCondition ref="E1:E183"/>
   </sortState>
@@ -1735,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M260"/>
+  <dimension ref="A1:M261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261"/>
+      <selection activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12227,6 +12231,9 @@
       <c r="D256">
         <v>180</v>
       </c>
+      <c r="E256" s="4">
+        <v>133.01</v>
+      </c>
       <c r="F256" s="1">
         <v>3</v>
       </c>
@@ -12414,6 +12421,47 @@
       </c>
       <c r="M260">
         <v>666</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13">
+      <c r="A261">
+        <v>261</v>
+      </c>
+      <c r="B261" t="s">
+        <v>285</v>
+      </c>
+      <c r="C261" t="s">
+        <v>253</v>
+      </c>
+      <c r="D261">
+        <v>148</v>
+      </c>
+      <c r="E261" s="4">
+        <v>115.2</v>
+      </c>
+      <c r="F261" s="1">
+        <v>3</v>
+      </c>
+      <c r="G261" s="1">
+        <v>6</v>
+      </c>
+      <c r="H261" s="2">
+        <v>10</v>
+      </c>
+      <c r="I261">
+        <v>12</v>
+      </c>
+      <c r="J261">
+        <v>211</v>
+      </c>
+      <c r="K261">
+        <v>303</v>
+      </c>
+      <c r="L261">
+        <v>466</v>
+      </c>
+      <c r="M261">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
